--- a/201909_PIBIU_PORT.xlsx
+++ b/201909_PIBIU_PORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Documents\lab2 rodolfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218AEDF-4D72-41BF-B8AC-9274B31C84AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916103AC-3B09-4CDF-B428-DF24CCD477C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RLS_BRL" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="RLS_SPT_DEZ-15" sheetId="5" r:id="rId4"/>
     <sheet name="RLS_BRL_DEZ-15" sheetId="6" r:id="rId5"/>
     <sheet name="RLS_BRP_DEZ-15" sheetId="7" r:id="rId6"/>
-    <sheet name="DADOS" sheetId="1" r:id="rId7"/>
+    <sheet name="RLM_BRL_BRP" sheetId="8" r:id="rId7"/>
+    <sheet name="DADOS" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="42">
   <si>
     <t>PIB</t>
   </si>
@@ -160,16 +161,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-416]mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0,"/>
-    <numFmt numFmtId="168" formatCode="#,##0,,"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ _P_t_s_-;\-* #,##0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0\ &quot;Pts&quot;_-;\-* #,##0\ &quot;Pts&quot;_-;_-* &quot;-&quot;\ &quot;Pts&quot;_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ &quot;Pts&quot;_-;\-* #,##0.00\ &quot;Pts&quot;_-;_-* &quot;-&quot;??\ &quot;Pts&quot;_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00_);\(#,##0.00\);&quot; --- &quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00\ %"/>
+    <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0,"/>
+    <numFmt numFmtId="167" formatCode="#,##0,,"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _P_t_s_-;\-* #,##0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0\ &quot;Pts&quot;_-;\-* #,##0\ &quot;Pts&quot;_-;_-* &quot;-&quot;\ &quot;Pts&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ &quot;Pts&quot;_-;\-* #,##0.00\ &quot;Pts&quot;_-;_-* &quot;-&quot;??\ &quot;Pts&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_);\(#,##0.00\);&quot; --- &quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00\ %"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -340,28 +341,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12017,7 +12018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7087801-C7E3-4A85-BC73-73F9677E4C0A}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -13978,11 +13979,2010 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6737C5CD-3D56-47BD-BD81-B1B0435C99D5}">
+  <dimension ref="A1:I181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I181"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.95676840747767411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.91540578554736463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.91429997882249348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4.924357804676065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>40147.973099784067</v>
+      </c>
+      <c r="D12" s="12">
+        <v>20073.986549892034</v>
+      </c>
+      <c r="E12" s="12">
+        <v>827.8171627633302</v>
+      </c>
+      <c r="F12" s="12">
+        <v>8.7409902252201359E-83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="12">
+        <v>153</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3710.1428676365335</v>
+      </c>
+      <c r="D13" s="12">
+        <v>24.249299788474076</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="13">
+        <v>155</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43858.115967420599</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12">
+        <v>21.026409142769026</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2.9588159448741966</v>
+      </c>
+      <c r="D17" s="12">
+        <v>7.106359278344037</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4.2370813948815107E-11</v>
+      </c>
+      <c r="F17" s="12">
+        <v>15.181001018192465</v>
+      </c>
+      <c r="G17" s="12">
+        <v>26.871817267345588</v>
+      </c>
+      <c r="H17" s="12">
+        <v>15.181001018192465</v>
+      </c>
+      <c r="I17" s="12">
+        <v>26.871817267345588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.34451650869621869</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2.7254856234306402E-2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>12.640554979797205</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1.5661181820919472E-25</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.2906720786828626</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.39836093870957479</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.2906720786828626</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.39836093870957479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.46817919500833333</v>
+      </c>
+      <c r="C19" s="13">
+        <v>3.3754635152155772E-2</v>
+      </c>
+      <c r="D19" s="13">
+        <v>13.87007126274427</v>
+      </c>
+      <c r="E19" s="13">
+        <v>7.6387247190861391E-29</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.40149386471519871</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.53486452530146789</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.40149386471519871</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.53486452530146789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" s="12">
+        <v>107.41401352338056</v>
+      </c>
+      <c r="C26" s="12">
+        <v>-7.4140135233805609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12">
+        <v>99.50479697369903</v>
+      </c>
+      <c r="C27" s="12">
+        <v>5.0092724048163149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>3</v>
+      </c>
+      <c r="B28" s="12">
+        <v>105.0300749106575</v>
+      </c>
+      <c r="C28" s="12">
+        <v>-4.6232647005654428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12">
+        <v>105.19700525883152</v>
+      </c>
+      <c r="C29" s="12">
+        <v>-4.9688657221018957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12">
+        <v>106.75657110394062</v>
+      </c>
+      <c r="C30" s="12">
+        <v>-7.6684934796431037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>6</v>
+      </c>
+      <c r="B31" s="12">
+        <v>103.05033682676944</v>
+      </c>
+      <c r="C31" s="12">
+        <v>-4.265470067433867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>7</v>
+      </c>
+      <c r="B32" s="12">
+        <v>109.33066796697409</v>
+      </c>
+      <c r="C32" s="12">
+        <v>-11.590680175097717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>8</v>
+      </c>
+      <c r="B33" s="12">
+        <v>106.83701389389111</v>
+      </c>
+      <c r="C33" s="12">
+        <v>-6.7196341642253685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>9</v>
+      </c>
+      <c r="B34" s="12">
+        <v>106.57870830896289</v>
+      </c>
+      <c r="C34" s="12">
+        <v>-4.6643013733486214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>10</v>
+      </c>
+      <c r="B35" s="12">
+        <v>111.92337825544686</v>
+      </c>
+      <c r="C35" s="12">
+        <v>-8.4593280379433224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>11</v>
+      </c>
+      <c r="B36" s="12">
+        <v>107.15603649704627</v>
+      </c>
+      <c r="C36" s="12">
+        <v>-2.7808308750667692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>12</v>
+      </c>
+      <c r="B37" s="12">
+        <v>114.05712991687822</v>
+      </c>
+      <c r="C37" s="12">
+        <v>-13.760040503579063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>13</v>
+      </c>
+      <c r="B38" s="12">
+        <v>109.52393748457209</v>
+      </c>
+      <c r="C38" s="12">
+        <v>-6.4123018332214627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>14</v>
+      </c>
+      <c r="B39" s="12">
+        <v>102.91256222642966</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1.1411616527848025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>15</v>
+      </c>
+      <c r="B40" s="12">
+        <v>111.38830961886468</v>
+      </c>
+      <c r="C40" s="12">
+        <v>-3.8520387424846518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>16</v>
+      </c>
+      <c r="B41" s="12">
+        <v>109.28179437814731</v>
+      </c>
+      <c r="C41" s="12">
+        <v>-3.23020419550393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>17</v>
+      </c>
+      <c r="B42" s="12">
+        <v>109.76204212447729</v>
+      </c>
+      <c r="C42" s="12">
+        <v>-3.5980885477073627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>18</v>
+      </c>
+      <c r="B43" s="12">
+        <v>107.92475045390887</v>
+      </c>
+      <c r="C43" s="12">
+        <v>-1.2917854042507315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>19</v>
+      </c>
+      <c r="B44" s="12">
+        <v>114.43646129840239</v>
+      </c>
+      <c r="C44" s="12">
+        <v>-7.2781606482495107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>20</v>
+      </c>
+      <c r="B45" s="12">
+        <v>114.18944014841117</v>
+      </c>
+      <c r="C45" s="12">
+        <v>-6.562109096573522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>21</v>
+      </c>
+      <c r="B46" s="12">
+        <v>113.25685845024111</v>
+      </c>
+      <c r="C46" s="12">
+        <v>-5.2417869371556236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>22</v>
+      </c>
+      <c r="B47" s="12">
+        <v>113.74669842990626</v>
+      </c>
+      <c r="C47" s="12">
+        <v>-5.7434619320933251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>23</v>
+      </c>
+      <c r="B48" s="12">
+        <v>111.64120172521697</v>
+      </c>
+      <c r="C48" s="12">
+        <v>-4.1106611691457005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>24</v>
+      </c>
+      <c r="B49" s="12">
+        <v>118.61432169230545</v>
+      </c>
+      <c r="C49" s="12">
+        <v>-10.582771048445821</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>25</v>
+      </c>
+      <c r="B50" s="12">
+        <v>112.50421428012231</v>
+      </c>
+      <c r="C50" s="12">
+        <v>-3.0187610437413639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>26</v>
+      </c>
+      <c r="B51" s="12">
+        <v>104.7253830125035</v>
+      </c>
+      <c r="C51" s="12">
+        <v>5.5738861229345105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>27</v>
+      </c>
+      <c r="B52" s="12">
+        <v>115.36784507785799</v>
+      </c>
+      <c r="C52" s="12">
+        <v>-4.7963284713262055</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>28</v>
+      </c>
+      <c r="B53" s="12">
+        <v>110.36438431327923</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0.75161136236282289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>29</v>
+      </c>
+      <c r="B54" s="12">
+        <v>112.90135385147617</v>
+      </c>
+      <c r="C54" s="12">
+        <v>-2.906706467095816</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>30</v>
+      </c>
+      <c r="B55" s="12">
+        <v>111.46035117567361</v>
+      </c>
+      <c r="C55" s="12">
+        <v>-0.39982101525453118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>31</v>
+      </c>
+      <c r="B56" s="12">
+        <v>115.11455149107124</v>
+      </c>
+      <c r="C56" s="12">
+        <v>-5.4377201170242415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>32</v>
+      </c>
+      <c r="B57" s="12">
+        <v>115.75185761282555</v>
+      </c>
+      <c r="C57" s="12">
+        <v>-5.6490021380769377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>33</v>
+      </c>
+      <c r="B58" s="12">
+        <v>111.31054756469017</v>
+      </c>
+      <c r="C58" s="12">
+        <v>-1.1609691488970242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>34</v>
+      </c>
+      <c r="B59" s="12">
+        <v>112.66199917641994</v>
+      </c>
+      <c r="C59" s="12">
+        <v>-2.2138929732777086</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>35</v>
+      </c>
+      <c r="B60" s="12">
+        <v>112.34676156110319</v>
+      </c>
+      <c r="C60" s="12">
+        <v>-1.0823227258898811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>36</v>
+      </c>
+      <c r="B61" s="12">
+        <v>119.5012860521623</v>
+      </c>
+      <c r="C61" s="12">
+        <v>-6.6030483240761839</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>37</v>
+      </c>
+      <c r="B62" s="12">
+        <v>115.10979406537672</v>
+      </c>
+      <c r="C62" s="12">
+        <v>-1.0099739747093679</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>38</v>
+      </c>
+      <c r="B63" s="12">
+        <v>105.10747688791037</v>
+      </c>
+      <c r="C63" s="12">
+        <v>8.2029457505564096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>39</v>
+      </c>
+      <c r="B64" s="12">
+        <v>115.37715159420898</v>
+      </c>
+      <c r="C64" s="12">
+        <v>-1.8563802106390597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>40</v>
+      </c>
+      <c r="B65" s="12">
+        <v>110.15604996051823</v>
+      </c>
+      <c r="C65" s="12">
+        <v>2.9174703123498915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>41</v>
+      </c>
+      <c r="B66" s="12">
+        <v>112.88742672843917</v>
+      </c>
+      <c r="C66" s="12">
+        <v>1.6468409048663943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>42</v>
+      </c>
+      <c r="B67" s="12">
+        <v>108.87219070943192</v>
+      </c>
+      <c r="C67" s="12">
+        <v>5.2197228452311606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>43</v>
+      </c>
+      <c r="B68" s="12">
+        <v>115.9193740300544</v>
+      </c>
+      <c r="C68" s="12">
+        <v>-0.44329448821210349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>44</v>
+      </c>
+      <c r="B69" s="12">
+        <v>116.96605069161106</v>
+      </c>
+      <c r="C69" s="12">
+        <v>-1.3019592818729819</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>45</v>
+      </c>
+      <c r="B70" s="12">
+        <v>114.07539791326349</v>
+      </c>
+      <c r="C70" s="12">
+        <v>1.1790226516646953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>46</v>
+      </c>
+      <c r="B71" s="12">
+        <v>116.98296952453106</v>
+      </c>
+      <c r="C71" s="12">
+        <v>-0.62141324155541611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>47</v>
+      </c>
+      <c r="B72" s="12">
+        <v>116.23536244203486</v>
+      </c>
+      <c r="C72" s="12">
+        <v>1.1050520876688239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <v>48</v>
+      </c>
+      <c r="B73" s="12">
+        <v>122.01315887193913</v>
+      </c>
+      <c r="C73" s="12">
+        <v>-3.9994490631505641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>49</v>
+      </c>
+      <c r="B74" s="12">
+        <v>118.57008645801936</v>
+      </c>
+      <c r="C74" s="12">
+        <v>-0.30773654757305735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>50</v>
+      </c>
+      <c r="B75" s="12">
+        <v>108.72093682133983</v>
+      </c>
+      <c r="C75" s="12">
+        <v>9.3986934469672434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <v>51</v>
+      </c>
+      <c r="B76" s="12">
+        <v>119.7146297001826</v>
+      </c>
+      <c r="C76" s="12">
+        <v>-1.3636535664991101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>52</v>
+      </c>
+      <c r="B77" s="12">
+        <v>114.10128156652394</v>
+      </c>
+      <c r="C77" s="12">
+        <v>5.3491237674868728</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>53</v>
+      </c>
+      <c r="B78" s="12">
+        <v>117.50322092716115</v>
+      </c>
+      <c r="C78" s="12">
+        <v>3.7028510238373968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>54</v>
+      </c>
+      <c r="B79" s="12">
+        <v>114.94399795758062</v>
+      </c>
+      <c r="C79" s="12">
+        <v>6.6498469799844599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <v>55</v>
+      </c>
+      <c r="B80" s="12">
+        <v>120.83008415577932</v>
+      </c>
+      <c r="C80" s="12">
+        <v>1.8820404191648379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <v>56</v>
+      </c>
+      <c r="B81" s="12">
+        <v>123.45830582514577</v>
+      </c>
+      <c r="C81" s="12">
+        <v>-0.29346407637716254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>57</v>
+      </c>
+      <c r="B82" s="12">
+        <v>120.9532621233019</v>
+      </c>
+      <c r="C82" s="12">
+        <v>2.5059095973221019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>58</v>
+      </c>
+      <c r="B83" s="12">
+        <v>126.66978974364338</v>
+      </c>
+      <c r="C83" s="12">
+        <v>-1.9223741769591669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>59</v>
+      </c>
+      <c r="B84" s="12">
+        <v>121.85858612714205</v>
+      </c>
+      <c r="C84" s="12">
+        <v>3.0105925791483088</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>60</v>
+      </c>
+      <c r="B85" s="12">
+        <v>125.92406021229124</v>
+      </c>
+      <c r="C85" s="12">
+        <v>-0.47752909004589128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>61</v>
+      </c>
+      <c r="B86" s="12">
+        <v>125.4783924668145</v>
+      </c>
+      <c r="C86" s="12">
+        <v>1.1612326181264621E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>62</v>
+      </c>
+      <c r="B87" s="12">
+        <v>116.7243310118895</v>
+      </c>
+      <c r="C87" s="12">
+        <v>7.3388380371243187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>63</v>
+      </c>
+      <c r="B88" s="12">
+        <v>123.72530544854877</v>
+      </c>
+      <c r="C88" s="12">
+        <v>2.583932367604362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>64</v>
+      </c>
+      <c r="B89" s="12">
+        <v>122.64311744128733</v>
+      </c>
+      <c r="C89" s="12">
+        <v>5.2249269411107804</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>65</v>
+      </c>
+      <c r="B90" s="12">
+        <v>125.14134623741897</v>
+      </c>
+      <c r="C90" s="12">
+        <v>2.9901199570363843</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <v>66</v>
+      </c>
+      <c r="B91" s="12">
+        <v>122.41645708368833</v>
+      </c>
+      <c r="C91" s="12">
+        <v>9.6262347223492952</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>67</v>
+      </c>
+      <c r="B92" s="12">
+        <v>131.18815101653144</v>
+      </c>
+      <c r="C92" s="12">
+        <v>7.5957532741824707E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
+        <v>68</v>
+      </c>
+      <c r="B93" s="12">
+        <v>126.18326602557732</v>
+      </c>
+      <c r="C93" s="12">
+        <v>4.7857816109672626</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>69</v>
+      </c>
+      <c r="B94" s="12">
+        <v>126.32399923089548</v>
+      </c>
+      <c r="C94" s="12">
+        <v>4.8084830903654279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>70</v>
+      </c>
+      <c r="B95" s="12">
+        <v>129.3494174990835</v>
+      </c>
+      <c r="C95" s="12">
+        <v>0.94564454408225629</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>71</v>
+      </c>
+      <c r="B96" s="12">
+        <v>122.89832204003716</v>
+      </c>
+      <c r="C96" s="12">
+        <v>4.0640687462554297</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>72</v>
+      </c>
+      <c r="B97" s="12">
+        <v>127.60891960786853</v>
+      </c>
+      <c r="C97" s="12">
+        <v>-5.9322657231265197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>73</v>
+      </c>
+      <c r="B98" s="12">
+        <v>121.03669226226131</v>
+      </c>
+      <c r="C98" s="12">
+        <v>1.7279018111572384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>74</v>
+      </c>
+      <c r="B99" s="12">
+        <v>113.31208838041397</v>
+      </c>
+      <c r="C99" s="12">
+        <v>10.353923763276612</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>75</v>
+      </c>
+      <c r="B100" s="12">
+        <v>123.13000491883069</v>
+      </c>
+      <c r="C100" s="12">
+        <v>3.2960179950579516</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <v>76</v>
+      </c>
+      <c r="B101" s="12">
+        <v>122.34298537020999</v>
+      </c>
+      <c r="C101" s="12">
+        <v>2.3750236086364964</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <v>77</v>
+      </c>
+      <c r="B102" s="12">
+        <v>123.92286678702931</v>
+      </c>
+      <c r="C102" s="12">
+        <v>1.8501843828120172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <v>78</v>
+      </c>
+      <c r="B103" s="12">
+        <v>120.56421456931031</v>
+      </c>
+      <c r="C103" s="12">
+        <v>6.4232274229737385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <v>79</v>
+      </c>
+      <c r="B104" s="12">
+        <v>126.71147298572893</v>
+      </c>
+      <c r="C104" s="12">
+        <v>-0.25052695705859662</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <v>80</v>
+      </c>
+      <c r="B105" s="12">
+        <v>125.01736888923878</v>
+      </c>
+      <c r="C105" s="12">
+        <v>3.318188335236357</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
+        <v>81</v>
+      </c>
+      <c r="B106" s="12">
+        <v>126.09172841693609</v>
+      </c>
+      <c r="C106" s="12">
+        <v>4.3071304870492213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
+        <v>82</v>
+      </c>
+      <c r="B107" s="12">
+        <v>132.01108528680905</v>
+      </c>
+      <c r="C107" s="12">
+        <v>-1.1615401415794224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="12">
+        <v>83</v>
+      </c>
+      <c r="B108" s="12">
+        <v>127.40892974395084</v>
+      </c>
+      <c r="C108" s="12">
+        <v>4.8680935767835649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <v>84</v>
+      </c>
+      <c r="B109" s="12">
+        <v>135.13605847733743</v>
+      </c>
+      <c r="C109" s="12">
+        <v>-2.1640016332068797</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
+        <v>85</v>
+      </c>
+      <c r="B110" s="12">
+        <v>127.50934966857707</v>
+      </c>
+      <c r="C110" s="12">
+        <v>6.516704848678927</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
+        <v>86</v>
+      </c>
+      <c r="B111" s="12">
+        <v>121.16907161646364</v>
+      </c>
+      <c r="C111" s="12">
+        <v>15.134757512511669</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="12">
+        <v>87</v>
+      </c>
+      <c r="B112" s="12">
+        <v>134.57571616796866</v>
+      </c>
+      <c r="C112" s="12">
+        <v>4.8064306845420504</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="12">
+        <v>88</v>
+      </c>
+      <c r="B113" s="12">
+        <v>130.21792478192006</v>
+      </c>
+      <c r="C113" s="12">
+        <v>6.9454784696885952</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <v>89</v>
+      </c>
+      <c r="B114" s="12">
+        <v>134.93498347983336</v>
+      </c>
+      <c r="C114" s="12">
+        <v>2.218872299046069</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
+        <v>90</v>
+      </c>
+      <c r="B115" s="12">
+        <v>129.83516813130345</v>
+      </c>
+      <c r="C115" s="12">
+        <v>6.2343625609248079</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
+        <v>91</v>
+      </c>
+      <c r="B116" s="12">
+        <v>137.17605727253749</v>
+      </c>
+      <c r="C116" s="12">
+        <v>-0.9522559383867133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="12">
+        <v>92</v>
+      </c>
+      <c r="B117" s="12">
+        <v>138.30200224127321</v>
+      </c>
+      <c r="C117" s="12">
+        <v>-0.55382027318623273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
+        <v>93</v>
+      </c>
+      <c r="B118" s="12">
+        <v>137.75893024962838</v>
+      </c>
+      <c r="C118" s="12">
+        <v>0.74859399942442906</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="12">
+        <v>94</v>
+      </c>
+      <c r="B119" s="12">
+        <v>140.157356841775</v>
+      </c>
+      <c r="C119" s="12">
+        <v>-1.2163182523138687</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="12">
+        <v>95</v>
+      </c>
+      <c r="B120" s="12">
+        <v>137.39995309354117</v>
+      </c>
+      <c r="C120" s="12">
+        <v>2.4225526761662479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="12">
+        <v>96</v>
+      </c>
+      <c r="B121" s="12">
+        <v>145.44578914262394</v>
+      </c>
+      <c r="C121" s="12">
+        <v>-3.7099854157739571</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="12">
+        <v>97</v>
+      </c>
+      <c r="B122" s="12">
+        <v>138.71230691853344</v>
+      </c>
+      <c r="C122" s="12">
+        <v>2.4747725150610904</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="12">
+        <v>98</v>
+      </c>
+      <c r="B123" s="12">
+        <v>130.2744868937898</v>
+      </c>
+      <c r="C123" s="12">
+        <v>14.603040348373582</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="12">
+        <v>99</v>
+      </c>
+      <c r="B124" s="12">
+        <v>141.31292950608565</v>
+      </c>
+      <c r="C124" s="12">
+        <v>-1.2344101266844518</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="12">
+        <v>100</v>
+      </c>
+      <c r="B125" s="12">
+        <v>138.55180925931228</v>
+      </c>
+      <c r="C125" s="12">
+        <v>1.7227432193690788</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="12">
+        <v>101</v>
+      </c>
+      <c r="B126" s="12">
+        <v>141.77117889612663</v>
+      </c>
+      <c r="C126" s="12">
+        <v>1.8306573710464988</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="12">
+        <v>102</v>
+      </c>
+      <c r="B127" s="12">
+        <v>138.51495414861748</v>
+      </c>
+      <c r="C127" s="12">
+        <v>4.2118295289723733</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="12">
+        <v>103</v>
+      </c>
+      <c r="B128" s="12">
+        <v>144.66553650941972</v>
+      </c>
+      <c r="C128" s="12">
+        <v>-1.3127012824213296</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="12">
+        <v>104</v>
+      </c>
+      <c r="B129" s="12">
+        <v>145.18849727298019</v>
+      </c>
+      <c r="C129" s="12">
+        <v>-3.4484299485696397</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
+        <v>105</v>
+      </c>
+      <c r="B130" s="12">
+        <v>142.72557806013401</v>
+      </c>
+      <c r="C130" s="12">
+        <v>-0.20568368482631172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <v>106</v>
+      </c>
+      <c r="B131" s="12">
+        <v>144.86185365211895</v>
+      </c>
+      <c r="C131" s="12">
+        <v>-2.4422087860880595</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
+        <v>107</v>
+      </c>
+      <c r="B132" s="12">
+        <v>142.82948928173852</v>
+      </c>
+      <c r="C132" s="12">
+        <v>0.3441335831339245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
+        <v>108</v>
+      </c>
+      <c r="B133" s="12">
+        <v>149.38852886452452</v>
+      </c>
+      <c r="C133" s="12">
+        <v>-3.8617198436273839</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="12">
+        <v>109</v>
+      </c>
+      <c r="B134" s="12">
+        <v>143.62128333065291</v>
+      </c>
+      <c r="C134" s="12">
+        <v>-1.4129172783090382</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="12">
+        <v>110</v>
+      </c>
+      <c r="B135" s="12">
+        <v>137.02784994999359</v>
+      </c>
+      <c r="C135" s="12">
+        <v>3.1308155377079743</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
+        <v>111</v>
+      </c>
+      <c r="B136" s="12">
+        <v>147.24418112273514</v>
+      </c>
+      <c r="C136" s="12">
+        <v>-4.5165761497143819</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="12">
+        <v>112</v>
+      </c>
+      <c r="B137" s="12">
+        <v>140.88667006270262</v>
+      </c>
+      <c r="C137" s="12">
+        <v>1.2578900153148709</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="12">
+        <v>113</v>
+      </c>
+      <c r="B138" s="12">
+        <v>144.64642703959333</v>
+      </c>
+      <c r="C138" s="12">
+        <v>0.20899047746704014</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="12">
+        <v>114</v>
+      </c>
+      <c r="B139" s="12">
+        <v>139.8468306210122</v>
+      </c>
+      <c r="C139" s="12">
+        <v>5.8480597009842654</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="12">
+        <v>115</v>
+      </c>
+      <c r="B140" s="12">
+        <v>147.79704322996213</v>
+      </c>
+      <c r="C140" s="12">
+        <v>-0.68074117471547879</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
+        <v>116</v>
+      </c>
+      <c r="B141" s="12">
+        <v>151.75289582426663</v>
+      </c>
+      <c r="C141" s="12">
+        <v>-3.8696104802473599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="12">
+        <v>117</v>
+      </c>
+      <c r="B142" s="12">
+        <v>147.14755167956287</v>
+      </c>
+      <c r="C142" s="12">
+        <v>-1.2439395264615314</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="12">
+        <v>118</v>
+      </c>
+      <c r="B143" s="12">
+        <v>152.69195054347054</v>
+      </c>
+      <c r="C143" s="12">
+        <v>-5.2079367107652388</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="12">
+        <v>119</v>
+      </c>
+      <c r="B144" s="12">
+        <v>148.74154813991669</v>
+      </c>
+      <c r="C144" s="12">
+        <v>-2.1525129767577198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
+        <v>120</v>
+      </c>
+      <c r="B145" s="12">
+        <v>150.22092096530594</v>
+      </c>
+      <c r="C145" s="12">
+        <v>-1.9899596702470888</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="12">
+        <v>121</v>
+      </c>
+      <c r="B146" s="12">
+        <v>150.64615008587452</v>
+      </c>
+      <c r="C146" s="12">
+        <v>-2.5991570125878241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="12">
+        <v>122</v>
+      </c>
+      <c r="B147" s="12">
+        <v>135.90605174181815</v>
+      </c>
+      <c r="C147" s="12">
+        <v>11.920438441806425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="12">
+        <v>123</v>
+      </c>
+      <c r="B148" s="12">
+        <v>149.04110474321152</v>
+      </c>
+      <c r="C148" s="12">
+        <v>-0.22269168575905951</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>124</v>
+      </c>
+      <c r="B149" s="12">
+        <v>147.70451097385268</v>
+      </c>
+      <c r="C149" s="12">
+        <v>2.4919690871455202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
+        <v>125</v>
+      </c>
+      <c r="B150" s="12">
+        <v>150.30523560943092</v>
+      </c>
+      <c r="C150" s="12">
+        <v>7.7229149168374533E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
+        <v>126</v>
+      </c>
+      <c r="B151" s="12">
+        <v>144.79758504607622</v>
+      </c>
+      <c r="C151" s="12">
+        <v>6.045476409189007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
+        <v>127</v>
+      </c>
+      <c r="B152" s="12">
+        <v>154.3774673561694</v>
+      </c>
+      <c r="C152" s="12">
+        <v>-3.1789042557441007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <v>128</v>
+      </c>
+      <c r="B153" s="12">
+        <v>155.2670769914364</v>
+      </c>
+      <c r="C153" s="12">
+        <v>-3.6924939968994579</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <v>129</v>
+      </c>
+      <c r="B154" s="12">
+        <v>151.82902717085091</v>
+      </c>
+      <c r="C154" s="12">
+        <v>-0.43052659433163853</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="12">
+        <v>130</v>
+      </c>
+      <c r="B155" s="12">
+        <v>157.96424379677475</v>
+      </c>
+      <c r="C155" s="12">
+        <v>-6.5692087747719086</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
+        <v>131</v>
+      </c>
+      <c r="B156" s="12">
+        <v>152.28648943902033</v>
+      </c>
+      <c r="C156" s="12">
+        <v>-0.35826831083718957</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="12">
+        <v>132</v>
+      </c>
+      <c r="B157" s="12">
+        <v>153.6472436110314</v>
+      </c>
+      <c r="C157" s="12">
+        <v>-3.0229066297460747</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
+        <v>133</v>
+      </c>
+      <c r="B158" s="12">
+        <v>154.38522305628811</v>
+      </c>
+      <c r="C158" s="12">
+        <v>-3.5652348233992655</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
+        <v>134</v>
+      </c>
+      <c r="B159" s="12">
+        <v>145.11082241447178</v>
+      </c>
+      <c r="C159" s="12">
+        <v>6.1488560511118635</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="12">
+        <v>135</v>
+      </c>
+      <c r="B160" s="12">
+        <v>150.11023817872734</v>
+      </c>
+      <c r="C160" s="12">
+        <v>1.3978785946127061</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
+        <v>136</v>
+      </c>
+      <c r="B161" s="12">
+        <v>148.9018492222288</v>
+      </c>
+      <c r="C161" s="12">
+        <v>2.0958274780367958</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
+        <v>137</v>
+      </c>
+      <c r="B162" s="12">
+        <v>150.08771626376156</v>
+      </c>
+      <c r="C162" s="12">
+        <v>1.6288297844263582</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
+        <v>138</v>
+      </c>
+      <c r="B163" s="12">
+        <v>140.91106196957625</v>
+      </c>
+      <c r="C163" s="12">
+        <v>6.9969462023134099</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="12">
+        <v>139</v>
+      </c>
+      <c r="B164" s="12">
+        <v>150.41172262119909</v>
+      </c>
+      <c r="C164" s="12">
+        <v>-1.2023252309207919</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="12">
+        <v>140</v>
+      </c>
+      <c r="B165" s="12">
+        <v>152.60222579491801</v>
+      </c>
+      <c r="C165" s="12">
+        <v>-2.5302216404522824</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
+        <v>141</v>
+      </c>
+      <c r="B166" s="12">
+        <v>150.19958152407173</v>
+      </c>
+      <c r="C166" s="12">
+        <v>0.54142098611555411</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <v>142</v>
+      </c>
+      <c r="B167" s="12">
+        <v>157.22917957450869</v>
+      </c>
+      <c r="C167" s="12">
+        <v>-6.2454300881127551</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
+        <v>143</v>
+      </c>
+      <c r="B168" s="12">
+        <v>150.21634942943257</v>
+      </c>
+      <c r="C168" s="12">
+        <v>0.502183815672538</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
+        <v>144</v>
+      </c>
+      <c r="B169" s="12">
+        <v>155.45420933546143</v>
+      </c>
+      <c r="C169" s="12">
+        <v>-5.4210308173940405</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
+        <v>145</v>
+      </c>
+      <c r="B170" s="12">
+        <v>151.54835386742894</v>
+      </c>
+      <c r="C170" s="12">
+        <v>-1.7597830809918094</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
+        <v>146</v>
+      </c>
+      <c r="B171" s="12">
+        <v>134.40248249167232</v>
+      </c>
+      <c r="C171" s="12">
+        <v>15.066644786095679</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>147</v>
+      </c>
+      <c r="B172" s="12">
+        <v>149.02069120632069</v>
+      </c>
+      <c r="C172" s="12">
+        <v>-0.78192406274052928</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
+        <v>148</v>
+      </c>
+      <c r="B173" s="12">
+        <v>144.2081773167393</v>
+      </c>
+      <c r="C173" s="12">
+        <v>2.809572024747979</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
+        <v>149</v>
+      </c>
+      <c r="B174" s="12">
+        <v>144.23015528632757</v>
+      </c>
+      <c r="C174" s="12">
+        <v>2.1200842469967256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="12">
+        <v>150</v>
+      </c>
+      <c r="B175" s="12">
+        <v>140.65174671939491</v>
+      </c>
+      <c r="C175" s="12">
+        <v>4.6884610878243222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
+        <v>151</v>
+      </c>
+      <c r="B176" s="12">
+        <v>148.69292737754859</v>
+      </c>
+      <c r="C176" s="12">
+        <v>-3.8753127059647738</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="12">
+        <v>152</v>
+      </c>
+      <c r="B177" s="12">
+        <v>147.19798846975397</v>
+      </c>
+      <c r="C177" s="12">
+        <v>-2.2434100039551481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="12">
+        <v>153</v>
+      </c>
+      <c r="B178" s="12">
+        <v>145.28492560017656</v>
+      </c>
+      <c r="C178" s="12">
+        <v>-1.3286636969620815</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="12">
+        <v>154</v>
+      </c>
+      <c r="B179" s="12">
+        <v>151.18193915853851</v>
+      </c>
+      <c r="C179" s="12">
+        <v>-6.5770233016476425</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <v>155</v>
+      </c>
+      <c r="B180" s="12">
+        <v>141.44062683883402</v>
+      </c>
+      <c r="C180" s="12">
+        <v>1.6358204512955297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="13">
+        <v>156</v>
+      </c>
+      <c r="B181" s="13">
+        <v>149.21816352807264</v>
+      </c>
+      <c r="C181" s="13">
+        <v>-6.2409881061493877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/201909_PIBIU_PORT.xlsx
+++ b/201909_PIBIU_PORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Documents\lab2 rodolfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916103AC-3B09-4CDF-B428-DF24CCD477C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9242BDF9-F97C-4D7A-A17B-C1DB4CFD7F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RLS_BRL" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="RLS_BRL_DEZ-15" sheetId="6" r:id="rId5"/>
     <sheet name="RLS_BRP_DEZ-15" sheetId="7" r:id="rId6"/>
     <sheet name="RLM_BRL_BRP" sheetId="8" r:id="rId7"/>
-    <sheet name="DADOS" sheetId="1" r:id="rId8"/>
+    <sheet name="RLM_BRs_SPs_PRs" sheetId="9" r:id="rId8"/>
+    <sheet name="DADOS" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="42">
   <si>
     <t>PIB</t>
   </si>
@@ -13982,7 +13983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6737C5CD-3D56-47BD-BD81-B1B0435C99D5}">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I181"/>
     </sheetView>
   </sheetViews>
@@ -15978,11 +15979,2207 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B330B87C-5A58-4336-B580-0717FC146718}">
+  <dimension ref="A1:I188"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I188"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.96603796483768412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.93322934950773451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.92911335050478649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4.4785905718587102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12">
+        <v>40929.681034910711</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4547.7423372123012</v>
+      </c>
+      <c r="E12" s="12">
+        <v>226.7321612175698</v>
+      </c>
+      <c r="F12" s="12">
+        <v>3.9190611080625937E-81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="12">
+        <v>146</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2928.434932509892</v>
+      </c>
+      <c r="D13" s="12">
+        <v>20.057773510341725</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="13">
+        <v>155</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43858.115967420599</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12">
+        <v>26.094929942667932</v>
+      </c>
+      <c r="C17" s="12">
+        <v>6.4867951811876079</v>
+      </c>
+      <c r="D17" s="12">
+        <v>4.0227769204654384</v>
+      </c>
+      <c r="E17" s="12">
+        <v>9.1955518056501231E-5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>13.2747804740877</v>
+      </c>
+      <c r="G17" s="12">
+        <v>38.915079411248165</v>
+      </c>
+      <c r="H17" s="12">
+        <v>13.2747804740877</v>
+      </c>
+      <c r="I17" s="12">
+        <v>38.915079411248165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12">
+        <v>-8.0632530879285103</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3.6832029675228868</v>
+      </c>
+      <c r="D18" s="12">
+        <v>-2.1891959685706368</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3.0171030704329454E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>-15.342535267779414</v>
+      </c>
+      <c r="G18" s="12">
+        <v>-0.78397090807760605</v>
+      </c>
+      <c r="H18" s="12">
+        <v>-15.342535267779414</v>
+      </c>
+      <c r="I18" s="12">
+        <v>-0.78397090807760605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12">
+        <v>-3.9538432759754345</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1.2358080100493838</v>
+      </c>
+      <c r="D19" s="12">
+        <v>-3.1993992948932544</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1.6894514335547021E-3</v>
+      </c>
+      <c r="F19" s="12">
+        <v>-6.3962270665487644</v>
+      </c>
+      <c r="G19" s="12">
+        <v>-1.5114594854021046</v>
+      </c>
+      <c r="H19" s="12">
+        <v>-6.3962270665487644</v>
+      </c>
+      <c r="I19" s="12">
+        <v>-1.5114594854021046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12">
+        <v>12.094781515073134</v>
+      </c>
+      <c r="C20" s="12">
+        <v>4.8799722887565382</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2.478452909033833</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1.433412798471591E-2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2.4502694876509121</v>
+      </c>
+      <c r="G20" s="12">
+        <v>21.739293542495354</v>
+      </c>
+      <c r="H20" s="12">
+        <v>2.4502694876509121</v>
+      </c>
+      <c r="I20" s="12">
+        <v>21.739293542495354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1.7618698211348074</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2.1340399602901186</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.82560301302665606</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.41037633434352105</v>
+      </c>
+      <c r="F21" s="12">
+        <v>-2.4557307811141271</v>
+      </c>
+      <c r="G21" s="12">
+        <v>5.9794704233837415</v>
+      </c>
+      <c r="H21" s="12">
+        <v>-2.4557307811141271</v>
+      </c>
+      <c r="I21" s="12">
+        <v>5.9794704233837415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1.9254964688087823</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.7137948007964211</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2.6975490248183336</v>
+      </c>
+      <c r="E22" s="12">
+        <v>7.8076998214086455E-3</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.51479121598311717</v>
+      </c>
+      <c r="G22" s="12">
+        <v>3.3362017216344473</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.51479121598311717</v>
+      </c>
+      <c r="I22" s="12">
+        <v>3.3362017216344473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="12">
+        <v>-3.051917519023124</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2.812524783666889</v>
+      </c>
+      <c r="D23" s="12">
+        <v>-1.0851166669699961</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.27965849271937615</v>
+      </c>
+      <c r="F23" s="12">
+        <v>-8.6104386536605908</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2.5066036156143432</v>
+      </c>
+      <c r="H23" s="12">
+        <v>-8.6104386536605908</v>
+      </c>
+      <c r="I23" s="12">
+        <v>2.5066036156143432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="12">
+        <v>8.883870883391733</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2.1366557662940742</v>
+      </c>
+      <c r="D24" s="12">
+        <v>4.1578390976850592</v>
+      </c>
+      <c r="E24" s="12">
+        <v>5.4550359704297975E-5</v>
+      </c>
+      <c r="F24" s="12">
+        <v>4.6611005443136202</v>
+      </c>
+      <c r="G24" s="12">
+        <v>13.106641222469847</v>
+      </c>
+      <c r="H24" s="12">
+        <v>4.6611005443136202</v>
+      </c>
+      <c r="I24" s="12">
+        <v>13.106641222469847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="12">
+        <v>5.2954350708014903</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1.2392165244117268</v>
+      </c>
+      <c r="D25" s="12">
+        <v>4.2732121195005099</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3.4590576813680179E-5</v>
+      </c>
+      <c r="F25" s="12">
+        <v>2.8463148776795228</v>
+      </c>
+      <c r="G25" s="12">
+        <v>7.7445552639234574</v>
+      </c>
+      <c r="H25" s="12">
+        <v>2.8463148776795228</v>
+      </c>
+      <c r="I25" s="12">
+        <v>7.7445552639234574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="13">
+        <v>-14.18428420358423</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3.377245864377834</v>
+      </c>
+      <c r="D26" s="13">
+        <v>-4.1999560509336211</v>
+      </c>
+      <c r="E26" s="13">
+        <v>4.6239384945174006E-5</v>
+      </c>
+      <c r="F26" s="13">
+        <v>-20.858889392142295</v>
+      </c>
+      <c r="G26" s="13">
+        <v>-7.5096790150261636</v>
+      </c>
+      <c r="H26" s="13">
+        <v>-20.858889392142295</v>
+      </c>
+      <c r="I26" s="13">
+        <v>-7.5096790150261636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>1</v>
+      </c>
+      <c r="B33" s="12">
+        <v>107.09761271688421</v>
+      </c>
+      <c r="C33" s="12">
+        <v>-7.097612716884214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>2</v>
+      </c>
+      <c r="B34" s="12">
+        <v>101.32375878880839</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3.1903105897069537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>3</v>
+      </c>
+      <c r="B35" s="12">
+        <v>102.41100520298301</v>
+      </c>
+      <c r="C35" s="12">
+        <v>-2.0041949928909446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>4</v>
+      </c>
+      <c r="B36" s="12">
+        <v>99.535325838734707</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.69281369799492154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>5</v>
+      </c>
+      <c r="B37" s="12">
+        <v>103.68412149856545</v>
+      </c>
+      <c r="C37" s="12">
+        <v>-4.5960438742679344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>6</v>
+      </c>
+      <c r="B38" s="12">
+        <v>102.59028776784226</v>
+      </c>
+      <c r="C38" s="12">
+        <v>-3.8054210085066842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>7</v>
+      </c>
+      <c r="B39" s="12">
+        <v>106.79051182158946</v>
+      </c>
+      <c r="C39" s="12">
+        <v>-9.0505240297130882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>8</v>
+      </c>
+      <c r="B40" s="12">
+        <v>104.57823766274919</v>
+      </c>
+      <c r="C40" s="12">
+        <v>-4.4608579330834459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>9</v>
+      </c>
+      <c r="B41" s="12">
+        <v>104.84513378475231</v>
+      </c>
+      <c r="C41" s="12">
+        <v>-2.9307268491380398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>10</v>
+      </c>
+      <c r="B42" s="12">
+        <v>109.71609566852885</v>
+      </c>
+      <c r="C42" s="12">
+        <v>-6.2520454510253103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>11</v>
+      </c>
+      <c r="B43" s="12">
+        <v>106.03977441784491</v>
+      </c>
+      <c r="C43" s="12">
+        <v>-1.6645687958654065</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>12</v>
+      </c>
+      <c r="B44" s="12">
+        <v>113.25755194080398</v>
+      </c>
+      <c r="C44" s="12">
+        <v>-12.960462527504816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>13</v>
+      </c>
+      <c r="B45" s="12">
+        <v>109.00706844939691</v>
+      </c>
+      <c r="C45" s="12">
+        <v>-5.8954327980462864</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>14</v>
+      </c>
+      <c r="B46" s="12">
+        <v>103.9285365059759</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0.12518737323856044</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>15</v>
+      </c>
+      <c r="B47" s="12">
+        <v>108.23289982118354</v>
+      </c>
+      <c r="C47" s="12">
+        <v>-0.69662894480350701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>16</v>
+      </c>
+      <c r="B48" s="12">
+        <v>105.30958828739108</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0.74200189525230087</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>17</v>
+      </c>
+      <c r="B49" s="12">
+        <v>106.59699456403109</v>
+      </c>
+      <c r="C49" s="12">
+        <v>-0.43304098726116536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>18</v>
+      </c>
+      <c r="B50" s="12">
+        <v>106.15079554924091</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0.48216950041722839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>19</v>
+      </c>
+      <c r="B51" s="12">
+        <v>112.62163631964177</v>
+      </c>
+      <c r="C51" s="12">
+        <v>-5.4633356694888846</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>20</v>
+      </c>
+      <c r="B52" s="12">
+        <v>112.10544986533318</v>
+      </c>
+      <c r="C52" s="12">
+        <v>-4.4781188134955414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>21</v>
+      </c>
+      <c r="B53" s="12">
+        <v>112.90300829923126</v>
+      </c>
+      <c r="C53" s="12">
+        <v>-4.8879367861457723</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>22</v>
+      </c>
+      <c r="B54" s="12">
+        <v>113.75897293337039</v>
+      </c>
+      <c r="C54" s="12">
+        <v>-5.7557364355574521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>23</v>
+      </c>
+      <c r="B55" s="12">
+        <v>111.50020985335868</v>
+      </c>
+      <c r="C55" s="12">
+        <v>-3.9696692972874104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>24</v>
+      </c>
+      <c r="B56" s="12">
+        <v>117.49493240110701</v>
+      </c>
+      <c r="C56" s="12">
+        <v>-9.463381757247376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>25</v>
+      </c>
+      <c r="B57" s="12">
+        <v>112.97894626942661</v>
+      </c>
+      <c r="C57" s="12">
+        <v>-3.4934930330456666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>26</v>
+      </c>
+      <c r="B58" s="12">
+        <v>106.23264496496722</v>
+      </c>
+      <c r="C58" s="12">
+        <v>4.0666241704707886</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>27</v>
+      </c>
+      <c r="B59" s="12">
+        <v>113.45693659428866</v>
+      </c>
+      <c r="C59" s="12">
+        <v>-2.885419987756876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>28</v>
+      </c>
+      <c r="B60" s="12">
+        <v>110.20918648057977</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0.90680919506228008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>29</v>
+      </c>
+      <c r="B61" s="12">
+        <v>112.35479860387886</v>
+      </c>
+      <c r="C61" s="12">
+        <v>-2.3601512194985048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>30</v>
+      </c>
+      <c r="B62" s="12">
+        <v>111.29539967507117</v>
+      </c>
+      <c r="C62" s="12">
+        <v>-0.23486951465208961</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>31</v>
+      </c>
+      <c r="B63" s="12">
+        <v>116.34640016294406</v>
+      </c>
+      <c r="C63" s="12">
+        <v>-6.6695687888970667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>32</v>
+      </c>
+      <c r="B64" s="12">
+        <v>116.3929721310285</v>
+      </c>
+      <c r="C64" s="12">
+        <v>-6.290116656279892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>33</v>
+      </c>
+      <c r="B65" s="12">
+        <v>112.00629378456142</v>
+      </c>
+      <c r="C65" s="12">
+        <v>-1.8567153687682776</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>34</v>
+      </c>
+      <c r="B66" s="12">
+        <v>113.15128366865883</v>
+      </c>
+      <c r="C66" s="12">
+        <v>-2.7031774655166032</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>35</v>
+      </c>
+      <c r="B67" s="12">
+        <v>111.39633768678937</v>
+      </c>
+      <c r="C67" s="12">
+        <v>-0.13189885157605374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>36</v>
+      </c>
+      <c r="B68" s="12">
+        <v>119.29984028552212</v>
+      </c>
+      <c r="C68" s="12">
+        <v>-6.4016025574360071</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>37</v>
+      </c>
+      <c r="B69" s="12">
+        <v>116.9188712233929</v>
+      </c>
+      <c r="C69" s="12">
+        <v>-2.8190511327255479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>38</v>
+      </c>
+      <c r="B70" s="12">
+        <v>107.63219978002394</v>
+      </c>
+      <c r="C70" s="12">
+        <v>5.6782228584428367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>39</v>
+      </c>
+      <c r="B71" s="12">
+        <v>114.21279162659357</v>
+      </c>
+      <c r="C71" s="12">
+        <v>-0.69202024302364862</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>40</v>
+      </c>
+      <c r="B72" s="12">
+        <v>109.74845112469939</v>
+      </c>
+      <c r="C72" s="12">
+        <v>3.3250691481687369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <v>41</v>
+      </c>
+      <c r="B73" s="12">
+        <v>112.67589737066896</v>
+      </c>
+      <c r="C73" s="12">
+        <v>1.8583702626365977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>42</v>
+      </c>
+      <c r="B74" s="12">
+        <v>109.38487318616012</v>
+      </c>
+      <c r="C74" s="12">
+        <v>4.7070403685029589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>43</v>
+      </c>
+      <c r="B75" s="12">
+        <v>117.68817172837021</v>
+      </c>
+      <c r="C75" s="12">
+        <v>-2.2120921865279115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <v>44</v>
+      </c>
+      <c r="B76" s="12">
+        <v>118.15890387757577</v>
+      </c>
+      <c r="C76" s="12">
+        <v>-2.49481246783769</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>45</v>
+      </c>
+      <c r="B77" s="12">
+        <v>116.06623565290556</v>
+      </c>
+      <c r="C77" s="12">
+        <v>-0.81181508797737933</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>46</v>
+      </c>
+      <c r="B78" s="12">
+        <v>117.95180514483059</v>
+      </c>
+      <c r="C78" s="12">
+        <v>-1.5902488618549455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>47</v>
+      </c>
+      <c r="B79" s="12">
+        <v>118.51109142819087</v>
+      </c>
+      <c r="C79" s="12">
+        <v>-1.1706768984871871</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <v>48</v>
+      </c>
+      <c r="B80" s="12">
+        <v>123.62332632589118</v>
+      </c>
+      <c r="C80" s="12">
+        <v>-5.6096165171026229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <v>49</v>
+      </c>
+      <c r="B81" s="12">
+        <v>119.96277495132631</v>
+      </c>
+      <c r="C81" s="12">
+        <v>-1.7004250408800061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>50</v>
+      </c>
+      <c r="B82" s="12">
+        <v>112.30489738449273</v>
+      </c>
+      <c r="C82" s="12">
+        <v>5.8147328838143437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>51</v>
+      </c>
+      <c r="B83" s="12">
+        <v>119.31098040461688</v>
+      </c>
+      <c r="C83" s="12">
+        <v>-0.96000427093339624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>52</v>
+      </c>
+      <c r="B84" s="12">
+        <v>114.71563692814357</v>
+      </c>
+      <c r="C84" s="12">
+        <v>4.7347684058672428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>53</v>
+      </c>
+      <c r="B85" s="12">
+        <v>117.26105540292701</v>
+      </c>
+      <c r="C85" s="12">
+        <v>3.9450165480715356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>54</v>
+      </c>
+      <c r="B86" s="12">
+        <v>116.10956653797712</v>
+      </c>
+      <c r="C86" s="12">
+        <v>5.4842783995879643</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>55</v>
+      </c>
+      <c r="B87" s="12">
+        <v>119.8465904899906</v>
+      </c>
+      <c r="C87" s="12">
+        <v>2.865534084953552</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>56</v>
+      </c>
+      <c r="B88" s="12">
+        <v>123.06276821285633</v>
+      </c>
+      <c r="C88" s="12">
+        <v>0.10207353591228241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>57</v>
+      </c>
+      <c r="B89" s="12">
+        <v>122.62021293617863</v>
+      </c>
+      <c r="C89" s="12">
+        <v>0.8389587844453672</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>58</v>
+      </c>
+      <c r="B90" s="12">
+        <v>126.78737148176242</v>
+      </c>
+      <c r="C90" s="12">
+        <v>-2.0399559150782096</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <v>59</v>
+      </c>
+      <c r="B91" s="12">
+        <v>122.98447317388582</v>
+      </c>
+      <c r="C91" s="12">
+        <v>1.8847055324045385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>60</v>
+      </c>
+      <c r="B92" s="12">
+        <v>126.58281161226364</v>
+      </c>
+      <c r="C92" s="12">
+        <v>-1.1362804900182937</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
+        <v>61</v>
+      </c>
+      <c r="B93" s="12">
+        <v>125.11258683049778</v>
+      </c>
+      <c r="C93" s="12">
+        <v>0.37741796249798654</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>62</v>
+      </c>
+      <c r="B94" s="12">
+        <v>117.60140970885459</v>
+      </c>
+      <c r="C94" s="12">
+        <v>6.461759340159233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>63</v>
+      </c>
+      <c r="B95" s="12">
+        <v>122.92553131249838</v>
+      </c>
+      <c r="C95" s="12">
+        <v>3.38370650365475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>64</v>
+      </c>
+      <c r="B96" s="12">
+        <v>120.11480237091018</v>
+      </c>
+      <c r="C96" s="12">
+        <v>7.7532420114879272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>65</v>
+      </c>
+      <c r="B97" s="12">
+        <v>122.89956188686392</v>
+      </c>
+      <c r="C97" s="12">
+        <v>5.2319043075914351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>66</v>
+      </c>
+      <c r="B98" s="12">
+        <v>122.64281790589484</v>
+      </c>
+      <c r="C98" s="12">
+        <v>9.3998739001427793</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>67</v>
+      </c>
+      <c r="B99" s="12">
+        <v>129.35181433677462</v>
+      </c>
+      <c r="C99" s="12">
+        <v>1.9122942124986366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>68</v>
+      </c>
+      <c r="B100" s="12">
+        <v>126.12203045368437</v>
+      </c>
+      <c r="C100" s="12">
+        <v>4.8470171828602133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <v>69</v>
+      </c>
+      <c r="B101" s="12">
+        <v>125.67488553774297</v>
+      </c>
+      <c r="C101" s="12">
+        <v>5.4575967835179426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <v>70</v>
+      </c>
+      <c r="B102" s="12">
+        <v>128.54238323490517</v>
+      </c>
+      <c r="C102" s="12">
+        <v>1.7526788082605833</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <v>71</v>
+      </c>
+      <c r="B103" s="12">
+        <v>122.79802247198722</v>
+      </c>
+      <c r="C103" s="12">
+        <v>4.1643683143053636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <v>72</v>
+      </c>
+      <c r="B104" s="12">
+        <v>127.24647120486156</v>
+      </c>
+      <c r="C104" s="12">
+        <v>-5.5698173201195544</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <v>73</v>
+      </c>
+      <c r="B105" s="12">
+        <v>122.31162425811294</v>
+      </c>
+      <c r="C105" s="12">
+        <v>0.45296981530560743</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
+        <v>74</v>
+      </c>
+      <c r="B106" s="12">
+        <v>115.93365117268377</v>
+      </c>
+      <c r="C106" s="12">
+        <v>7.7323609710068126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
+        <v>75</v>
+      </c>
+      <c r="B107" s="12">
+        <v>120.86686705293937</v>
+      </c>
+      <c r="C107" s="12">
+        <v>5.5591558609492751</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="12">
+        <v>76</v>
+      </c>
+      <c r="B108" s="12">
+        <v>120.6276730860227</v>
+      </c>
+      <c r="C108" s="12">
+        <v>4.0903358928237878</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <v>77</v>
+      </c>
+      <c r="B109" s="12">
+        <v>123.14293713828192</v>
+      </c>
+      <c r="C109" s="12">
+        <v>2.6301140315594012</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
+        <v>78</v>
+      </c>
+      <c r="B110" s="12">
+        <v>120.52728652253609</v>
+      </c>
+      <c r="C110" s="12">
+        <v>6.46015546974796</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
+        <v>79</v>
+      </c>
+      <c r="B111" s="12">
+        <v>125.85550385806073</v>
+      </c>
+      <c r="C111" s="12">
+        <v>0.60544217060960648</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="12">
+        <v>80</v>
+      </c>
+      <c r="B112" s="12">
+        <v>126.43597676334412</v>
+      </c>
+      <c r="C112" s="12">
+        <v>1.8995804611310234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="12">
+        <v>81</v>
+      </c>
+      <c r="B113" s="12">
+        <v>125.48877029593837</v>
+      </c>
+      <c r="C113" s="12">
+        <v>4.9100886080469479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <v>82</v>
+      </c>
+      <c r="B114" s="12">
+        <v>132.41233692238097</v>
+      </c>
+      <c r="C114" s="12">
+        <v>-1.5627917771513467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
+        <v>83</v>
+      </c>
+      <c r="B115" s="12">
+        <v>127.72591278382697</v>
+      </c>
+      <c r="C115" s="12">
+        <v>4.5511105369074301</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
+        <v>84</v>
+      </c>
+      <c r="B116" s="12">
+        <v>132.92020190551284</v>
+      </c>
+      <c r="C116" s="12">
+        <v>5.1854938617708513E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="12">
+        <v>85</v>
+      </c>
+      <c r="B117" s="12">
+        <v>126.42562685866824</v>
+      </c>
+      <c r="C117" s="12">
+        <v>7.6004276585877619</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
+        <v>86</v>
+      </c>
+      <c r="B118" s="12">
+        <v>122.58298166680584</v>
+      </c>
+      <c r="C118" s="12">
+        <v>13.720847462169473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="12">
+        <v>87</v>
+      </c>
+      <c r="B119" s="12">
+        <v>132.06092972419788</v>
+      </c>
+      <c r="C119" s="12">
+        <v>7.3212171283128384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="12">
+        <v>88</v>
+      </c>
+      <c r="B120" s="12">
+        <v>133.67286460287073</v>
+      </c>
+      <c r="C120" s="12">
+        <v>3.4905386487379246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="12">
+        <v>89</v>
+      </c>
+      <c r="B121" s="12">
+        <v>139.7500878491519</v>
+      </c>
+      <c r="C121" s="12">
+        <v>-2.5962320702724639</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="12">
+        <v>90</v>
+      </c>
+      <c r="B122" s="12">
+        <v>134.62813268443733</v>
+      </c>
+      <c r="C122" s="12">
+        <v>1.441398007790923</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="12">
+        <v>91</v>
+      </c>
+      <c r="B123" s="12">
+        <v>139.92494983537995</v>
+      </c>
+      <c r="C123" s="12">
+        <v>-3.7011485012291701</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="12">
+        <v>92</v>
+      </c>
+      <c r="B124" s="12">
+        <v>143.67367757840407</v>
+      </c>
+      <c r="C124" s="12">
+        <v>-5.9254956103170855</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="12">
+        <v>93</v>
+      </c>
+      <c r="B125" s="12">
+        <v>138.89814111952865</v>
+      </c>
+      <c r="C125" s="12">
+        <v>-0.3906168704758386</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="12">
+        <v>94</v>
+      </c>
+      <c r="B126" s="12">
+        <v>141.69772630502825</v>
+      </c>
+      <c r="C126" s="12">
+        <v>-2.756687715567125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="12">
+        <v>95</v>
+      </c>
+      <c r="B127" s="12">
+        <v>141.08671798851969</v>
+      </c>
+      <c r="C127" s="12">
+        <v>-1.2642122188122755</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="12">
+        <v>96</v>
+      </c>
+      <c r="B128" s="12">
+        <v>145.93998515631438</v>
+      </c>
+      <c r="C128" s="12">
+        <v>-4.2041814294643984</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="12">
+        <v>97</v>
+      </c>
+      <c r="B129" s="12">
+        <v>138.28447298809215</v>
+      </c>
+      <c r="C129" s="12">
+        <v>2.9026064455023857</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
+        <v>98</v>
+      </c>
+      <c r="B130" s="12">
+        <v>133.83236206618267</v>
+      </c>
+      <c r="C130" s="12">
+        <v>11.045165175980713</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <v>99</v>
+      </c>
+      <c r="B131" s="12">
+        <v>145.67246635852257</v>
+      </c>
+      <c r="C131" s="12">
+        <v>-5.5939469791213696</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
+        <v>100</v>
+      </c>
+      <c r="B132" s="12">
+        <v>141.79667881506953</v>
+      </c>
+      <c r="C132" s="12">
+        <v>-1.522126336388169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
+        <v>101</v>
+      </c>
+      <c r="B133" s="12">
+        <v>142.00873932852801</v>
+      </c>
+      <c r="C133" s="12">
+        <v>1.5930969386451181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="12">
+        <v>102</v>
+      </c>
+      <c r="B134" s="12">
+        <v>142.4697564603473</v>
+      </c>
+      <c r="C134" s="12">
+        <v>0.25702721724255184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="12">
+        <v>103</v>
+      </c>
+      <c r="B135" s="12">
+        <v>147.31511916031377</v>
+      </c>
+      <c r="C135" s="12">
+        <v>-3.9622839333153763</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
+        <v>104</v>
+      </c>
+      <c r="B136" s="12">
+        <v>148.72987168121244</v>
+      </c>
+      <c r="C136" s="12">
+        <v>-6.9898043568018977</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="12">
+        <v>105</v>
+      </c>
+      <c r="B137" s="12">
+        <v>141.38298097717234</v>
+      </c>
+      <c r="C137" s="12">
+        <v>1.1369133981353627</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="12">
+        <v>106</v>
+      </c>
+      <c r="B138" s="12">
+        <v>142.18566936610773</v>
+      </c>
+      <c r="C138" s="12">
+        <v>0.23397549992316158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="12">
+        <v>107</v>
+      </c>
+      <c r="B139" s="12">
+        <v>144.91957485194439</v>
+      </c>
+      <c r="C139" s="12">
+        <v>-1.7459519870719475</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="12">
+        <v>108</v>
+      </c>
+      <c r="B140" s="12">
+        <v>145.72700904532758</v>
+      </c>
+      <c r="C140" s="12">
+        <v>-0.20020002443044405</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
+        <v>109</v>
+      </c>
+      <c r="B141" s="12">
+        <v>140.04338117187399</v>
+      </c>
+      <c r="C141" s="12">
+        <v>2.1649848804698877</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="12">
+        <v>110</v>
+      </c>
+      <c r="B142" s="12">
+        <v>141.36807344878252</v>
+      </c>
+      <c r="C142" s="12">
+        <v>-1.2094079610809558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="12">
+        <v>111</v>
+      </c>
+      <c r="B143" s="12">
+        <v>147.06330167588612</v>
+      </c>
+      <c r="C143" s="12">
+        <v>-4.3356967028653628</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="12">
+        <v>112</v>
+      </c>
+      <c r="B144" s="12">
+        <v>141.40156412922465</v>
+      </c>
+      <c r="C144" s="12">
+        <v>0.74299594879283859</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
+        <v>113</v>
+      </c>
+      <c r="B145" s="12">
+        <v>144.56451513118941</v>
+      </c>
+      <c r="C145" s="12">
+        <v>0.29090238587096451</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="12">
+        <v>114</v>
+      </c>
+      <c r="B146" s="12">
+        <v>143.8043304121552</v>
+      </c>
+      <c r="C146" s="12">
+        <v>1.8905599098412722</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="12">
+        <v>115</v>
+      </c>
+      <c r="B147" s="12">
+        <v>149.67983788195397</v>
+      </c>
+      <c r="C147" s="12">
+        <v>-2.5635358267073229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="12">
+        <v>116</v>
+      </c>
+      <c r="B148" s="12">
+        <v>152.44685232324059</v>
+      </c>
+      <c r="C148" s="12">
+        <v>-4.5635669792213207</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>117</v>
+      </c>
+      <c r="B149" s="12">
+        <v>146.95939713819871</v>
+      </c>
+      <c r="C149" s="12">
+        <v>-1.0557849850973753</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
+        <v>118</v>
+      </c>
+      <c r="B150" s="12">
+        <v>151.25522218970264</v>
+      </c>
+      <c r="C150" s="12">
+        <v>-3.7712083569973345</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
+        <v>119</v>
+      </c>
+      <c r="B151" s="12">
+        <v>152.10506977156365</v>
+      </c>
+      <c r="C151" s="12">
+        <v>-5.5160346084046807</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
+        <v>120</v>
+      </c>
+      <c r="B152" s="12">
+        <v>150.36596932318025</v>
+      </c>
+      <c r="C152" s="12">
+        <v>-2.1350080281214048</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <v>121</v>
+      </c>
+      <c r="B153" s="12">
+        <v>148.15772400767219</v>
+      </c>
+      <c r="C153" s="12">
+        <v>-0.11073093438548653</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <v>122</v>
+      </c>
+      <c r="B154" s="12">
+        <v>139.60297777656069</v>
+      </c>
+      <c r="C154" s="12">
+        <v>8.223512407063879</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="12">
+        <v>123</v>
+      </c>
+      <c r="B155" s="12">
+        <v>152.67017464910123</v>
+      </c>
+      <c r="C155" s="12">
+        <v>-3.8517615916487671</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
+        <v>124</v>
+      </c>
+      <c r="B156" s="12">
+        <v>144.4341879260071</v>
+      </c>
+      <c r="C156" s="12">
+        <v>5.7622921349910996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="12">
+        <v>125</v>
+      </c>
+      <c r="B157" s="12">
+        <v>151.09774054521858</v>
+      </c>
+      <c r="C157" s="12">
+        <v>-0.71527578661928715</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
+        <v>126</v>
+      </c>
+      <c r="B158" s="12">
+        <v>146.49813254640662</v>
+      </c>
+      <c r="C158" s="12">
+        <v>4.3449289088586056</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
+        <v>127</v>
+      </c>
+      <c r="B159" s="12">
+        <v>153.73911832760223</v>
+      </c>
+      <c r="C159" s="12">
+        <v>-2.5405552271769238</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="12">
+        <v>128</v>
+      </c>
+      <c r="B160" s="12">
+        <v>154.18913029758551</v>
+      </c>
+      <c r="C160" s="12">
+        <v>-2.6145473030485675</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
+        <v>129</v>
+      </c>
+      <c r="B161" s="12">
+        <v>148.49046881720778</v>
+      </c>
+      <c r="C161" s="12">
+        <v>2.9080317593114842</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
+        <v>130</v>
+      </c>
+      <c r="B162" s="12">
+        <v>153.11257451636038</v>
+      </c>
+      <c r="C162" s="12">
+        <v>-1.7175394943575384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
+        <v>131</v>
+      </c>
+      <c r="B163" s="12">
+        <v>154.59760785132357</v>
+      </c>
+      <c r="C163" s="12">
+        <v>-2.669386723140434</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="12">
+        <v>132</v>
+      </c>
+      <c r="B164" s="12">
+        <v>152.711278818153</v>
+      </c>
+      <c r="C164" s="12">
+        <v>-2.0869418368676804</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="12">
+        <v>133</v>
+      </c>
+      <c r="B165" s="12">
+        <v>151.39850374005937</v>
+      </c>
+      <c r="C165" s="12">
+        <v>-0.57851550717052191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
+        <v>134</v>
+      </c>
+      <c r="B166" s="12">
+        <v>144.35801987911145</v>
+      </c>
+      <c r="C166" s="12">
+        <v>6.9016585864721947</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <v>135</v>
+      </c>
+      <c r="B167" s="12">
+        <v>151.41611580850486</v>
+      </c>
+      <c r="C167" s="12">
+        <v>9.2000964835193599E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
+        <v>136</v>
+      </c>
+      <c r="B168" s="12">
+        <v>145.89349925055103</v>
+      </c>
+      <c r="C168" s="12">
+        <v>5.1041774497145695</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
+        <v>137</v>
+      </c>
+      <c r="B169" s="12">
+        <v>147.26158534586148</v>
+      </c>
+      <c r="C169" s="12">
+        <v>4.4549607023264457</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
+        <v>138</v>
+      </c>
+      <c r="B170" s="12">
+        <v>141.49233199440118</v>
+      </c>
+      <c r="C170" s="12">
+        <v>6.4156761774884785</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
+        <v>139</v>
+      </c>
+      <c r="B171" s="12">
+        <v>146.67988078678673</v>
+      </c>
+      <c r="C171" s="12">
+        <v>2.5295166034915724</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>140</v>
+      </c>
+      <c r="B172" s="12">
+        <v>153.29181331290692</v>
+      </c>
+      <c r="C172" s="12">
+        <v>-3.2198091584411941</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
+        <v>141</v>
+      </c>
+      <c r="B173" s="12">
+        <v>145.4865337115566</v>
+      </c>
+      <c r="C173" s="12">
+        <v>5.2544687986306826</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
+        <v>142</v>
+      </c>
+      <c r="B174" s="12">
+        <v>155.00854080153385</v>
+      </c>
+      <c r="C174" s="12">
+        <v>-4.024791315137918</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="12">
+        <v>143</v>
+      </c>
+      <c r="B175" s="12">
+        <v>150.08305016504028</v>
+      </c>
+      <c r="C175" s="12">
+        <v>0.63548308006483012</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
+        <v>144</v>
+      </c>
+      <c r="B176" s="12">
+        <v>156.38420090091768</v>
+      </c>
+      <c r="C176" s="12">
+        <v>-6.3510223828502887</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="12">
+        <v>145</v>
+      </c>
+      <c r="B177" s="12">
+        <v>149.2896405717529</v>
+      </c>
+      <c r="C177" s="12">
+        <v>0.49893021468423626</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="12">
+        <v>146</v>
+      </c>
+      <c r="B178" s="12">
+        <v>142.95785305277968</v>
+      </c>
+      <c r="C178" s="12">
+        <v>6.5112742249883127</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="12">
+        <v>147</v>
+      </c>
+      <c r="B179" s="12">
+        <v>147.16694085142808</v>
+      </c>
+      <c r="C179" s="12">
+        <v>1.0718262921520818</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <v>148</v>
+      </c>
+      <c r="B180" s="12">
+        <v>144.57943698921463</v>
+      </c>
+      <c r="C180" s="12">
+        <v>2.4383123522726464</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="12">
+        <v>149</v>
+      </c>
+      <c r="B181" s="12">
+        <v>144.73798663040589</v>
+      </c>
+      <c r="C181" s="12">
+        <v>1.6122529029184136</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
+        <v>150</v>
+      </c>
+      <c r="B182" s="12">
+        <v>141.05229352267452</v>
+      </c>
+      <c r="C182" s="12">
+        <v>4.287914284544712</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="12">
+        <v>151</v>
+      </c>
+      <c r="B183" s="12">
+        <v>148.11024156283793</v>
+      </c>
+      <c r="C183" s="12">
+        <v>-3.2926268912541161</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <v>152</v>
+      </c>
+      <c r="B184" s="12">
+        <v>146.7919767850326</v>
+      </c>
+      <c r="C184" s="12">
+        <v>-1.8373983192337846</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <v>153</v>
+      </c>
+      <c r="B185" s="12">
+        <v>142.21759265197807</v>
+      </c>
+      <c r="C185" s="12">
+        <v>1.7386692512364164</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <v>154</v>
+      </c>
+      <c r="B186" s="12">
+        <v>150.7585731031877</v>
+      </c>
+      <c r="C186" s="12">
+        <v>-6.1536572462968309</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
+        <v>155</v>
+      </c>
+      <c r="B187" s="12">
+        <v>140.7960911121645</v>
+      </c>
+      <c r="C187" s="12">
+        <v>2.2803561779650465</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="13">
+        <v>156</v>
+      </c>
+      <c r="B188" s="13">
+        <v>145.97573820019306</v>
+      </c>
+      <c r="C188" s="13">
+        <v>-2.9985627782698145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
